--- a/data/HR1/A_BJ_35/A_BJ_35_2034.xlsx
+++ b/data/HR1/A_BJ_35/A_BJ_35_2034.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_BJ_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF7094-2307-4154-8C60-6E267A734D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B6A2B6-E621-44B2-8049-208C22933495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
   <si>
     <t>numScenarios</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Pinst, [MW]</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>ESID</t>
@@ -16658,7 +16655,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('ES installed'!C2:C6)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -16678,7 +16675,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -18366,7 +18363,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -31587,7 +31584,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -33270,8 +33267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AF7E2F-C521-4E43-83A3-255291D61BD8}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33403,7 +33400,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -35094,7 +35091,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -36785,7 +36782,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -38476,7 +38473,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -40167,7 +40164,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -41858,7 +41855,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -43546,7 +43543,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -50537,17 +50534,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2086E97A-8994-47C6-B6B3-92673DE03586}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -50560,55 +50557,99 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -56848,7 +56889,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -58539,7 +58580,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -60230,7 +60271,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -61921,7 +61962,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -63612,7 +63653,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -65303,7 +65344,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/data/HR1/A_BJ_35/A_BJ_35_2034.xlsx
+++ b/data/HR1/A_BJ_35/A_BJ_35_2034.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_BJ_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B6A2B6-E621-44B2-8049-208C22933495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C15BAF-5EC3-4461-90A2-343AF41DD106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="26" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -30022,7 +30022,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="B12" sqref="B12:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30879,76 +30879,76 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -30956,76 +30956,76 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -31033,76 +31033,76 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -31110,76 +31110,76 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -31187,76 +31187,76 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -31264,76 +31264,76 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -31341,76 +31341,76 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -31418,76 +31418,76 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -31495,76 +31495,76 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -50536,8 +50536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2086E97A-8994-47C6-B6B3-92673DE03586}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55326,8 +55326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D9792-F63F-4427-BB5B-847351ACEE5E}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56184,76 +56184,76 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -56261,76 +56261,76 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -56338,76 +56338,76 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -56415,76 +56415,76 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -56492,76 +56492,76 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -56569,76 +56569,76 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -56646,76 +56646,76 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -56723,76 +56723,76 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -56800,76 +56800,76 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
